--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.4552710754404</v>
+        <v>486.7391345166159</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.2888128420017</v>
+        <v>665.9779572607321</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.8654594760511</v>
+        <v>602.4179557257006</v>
       </c>
       <c r="AD2" t="n">
-        <v>401455.2710754403</v>
+        <v>486739.1345166159</v>
       </c>
       <c r="AE2" t="n">
-        <v>549288.8128420017</v>
+        <v>665977.9572607321</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.195271962191393e-06</v>
+        <v>2.211566069500705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>496865.459476051</v>
+        <v>602417.9557257006</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.8668050948809</v>
+        <v>356.8697270678067</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.3990860504063</v>
+        <v>488.2849045553779</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.3308223992958</v>
+        <v>441.6836785767795</v>
       </c>
       <c r="AD3" t="n">
-        <v>283866.8050948809</v>
+        <v>356869.7270678066</v>
       </c>
       <c r="AE3" t="n">
-        <v>388399.0860504063</v>
+        <v>488284.9045553778</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.521142760975841e-06</v>
+        <v>2.814512364929141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>351330.8223992958</v>
+        <v>441683.6785767796</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.265172518742</v>
+        <v>307.0476644820058</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.3698028954174</v>
+        <v>420.1161605312104</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.6446848647113</v>
+        <v>380.0208638068455</v>
       </c>
       <c r="AD4" t="n">
-        <v>258265.172518742</v>
+        <v>307047.6644820058</v>
       </c>
       <c r="AE4" t="n">
-        <v>353369.8028954174</v>
+        <v>420116.1605312104</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.652438745730695e-06</v>
+        <v>3.057444311908938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.19921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>319644.6848647113</v>
+        <v>380020.8638068455</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.5649770391313</v>
+        <v>292.4576392529534</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.8374175105748</v>
+        <v>400.1534443463356</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.5988990675679</v>
+        <v>361.963361236807</v>
       </c>
       <c r="AD5" t="n">
-        <v>231564.9770391313</v>
+        <v>292457.6392529533</v>
       </c>
       <c r="AE5" t="n">
-        <v>316837.4175105748</v>
+        <v>400153.4443463356</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.713266716623344e-06</v>
+        <v>3.169991983700823e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>286598.8990675678</v>
+        <v>361963.361236807</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.1334222742219</v>
+        <v>290.026084488044</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.5104570086022</v>
+        <v>396.8264838443613</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.589459006484</v>
+        <v>358.9539211757227</v>
       </c>
       <c r="AD6" t="n">
-        <v>229133.4222742219</v>
+        <v>290026.084488044</v>
       </c>
       <c r="AE6" t="n">
-        <v>313510.4570086022</v>
+        <v>396826.4838443613</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.726221253785823e-06</v>
+        <v>3.193961269136163e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>283589.459006484</v>
+        <v>358953.9211757227</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.9439530399027</v>
+        <v>395.355633635614</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.6026520646542</v>
+        <v>540.9430197998194</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.1703989553441</v>
+        <v>489.3161772084205</v>
       </c>
       <c r="AD2" t="n">
-        <v>324943.9530399027</v>
+        <v>395355.633635614</v>
       </c>
       <c r="AE2" t="n">
-        <v>444602.6520646542</v>
+        <v>540943.0197998193</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.384509945591697e-06</v>
+        <v>2.6390896310386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>402170.3989553441</v>
+        <v>489316.1772084205</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.4661326283886</v>
+        <v>304.1141010913856</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.8575918634889</v>
+        <v>416.1023296804812</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.8038146752282</v>
+        <v>376.390107339063</v>
       </c>
       <c r="AD3" t="n">
-        <v>245466.1326283886</v>
+        <v>304114.1010913856</v>
       </c>
       <c r="AE3" t="n">
-        <v>335857.5918634889</v>
+        <v>416102.3296804812</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683781218842656e-06</v>
+        <v>3.209546865108369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>303803.8146752283</v>
+        <v>376390.107339063</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.1421305637961</v>
+        <v>272.8753503728133</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.9987103212947</v>
+        <v>373.3600927909142</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.0353246345894</v>
+        <v>337.72712954913</v>
       </c>
       <c r="AD4" t="n">
-        <v>214142.1305637961</v>
+        <v>272875.3503728133</v>
       </c>
       <c r="AE4" t="n">
-        <v>292998.7103212947</v>
+        <v>373360.0927909142</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.786307104450496e-06</v>
+        <v>3.40497702614276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>265035.3246345894</v>
+        <v>337727.12954913</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.4158308764482</v>
+        <v>272.1490506854653</v>
       </c>
       <c r="AB5" t="n">
-        <v>292.0049550469849</v>
+        <v>372.366337516604</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.1364119689151</v>
+        <v>336.8282168834556</v>
       </c>
       <c r="AD5" t="n">
-        <v>213415.8308764482</v>
+        <v>272149.0506854653</v>
       </c>
       <c r="AE5" t="n">
-        <v>292004.9550469849</v>
+        <v>372366.337516604</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.792802503232529e-06</v>
+        <v>3.417358258671787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>264136.4119689151</v>
+        <v>336828.2168834556</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.8753083778285</v>
+        <v>227.7291678511426</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.3227971622904</v>
+        <v>311.5890941556131</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.0505863454831</v>
+        <v>281.851468327534</v>
       </c>
       <c r="AD2" t="n">
-        <v>185875.3083778285</v>
+        <v>227729.1678511426</v>
       </c>
       <c r="AE2" t="n">
-        <v>254322.7971622904</v>
+        <v>311589.0941556131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.943735549017937e-06</v>
+        <v>4.139648038111587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>230050.5863454831</v>
+        <v>281851.468327534</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.077604662959</v>
+        <v>227.3094762643411</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.5489025785453</v>
+        <v>311.0148536110656</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.6866915255147</v>
+        <v>281.3320324946062</v>
       </c>
       <c r="AD3" t="n">
-        <v>175077.604662959</v>
+        <v>227309.4762643411</v>
       </c>
       <c r="AE3" t="n">
-        <v>239548.9025785453</v>
+        <v>311014.8536110656</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.952977319094361e-06</v>
+        <v>4.15933058977602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>216686.6915255147</v>
+        <v>281332.0324946062</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.7377576443673</v>
+        <v>275.5967378753717</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.0231382714582</v>
+        <v>377.083615231058</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.1984738470564</v>
+        <v>341.095284233583</v>
       </c>
       <c r="AD2" t="n">
-        <v>220737.7576443673</v>
+        <v>275596.7378753717</v>
       </c>
       <c r="AE2" t="n">
-        <v>302023.1382714582</v>
+        <v>377083.615231058</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.745062865960837e-06</v>
+        <v>3.543080941385886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.615885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>273198.4738470564</v>
+        <v>341095.284233583</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.8548708828918</v>
+        <v>242.6285102593211</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.0313219138506</v>
+        <v>331.975031751069</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.5006132961936</v>
+        <v>300.2918006507292</v>
       </c>
       <c r="AD3" t="n">
-        <v>187854.8708828918</v>
+        <v>242628.5102593211</v>
       </c>
       <c r="AE3" t="n">
-        <v>257031.3219138506</v>
+        <v>331975.031751069</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.909439023955405e-06</v>
+        <v>3.876821372157197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>232500.6132961937</v>
+        <v>300291.8006507292</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4193880507692</v>
+        <v>224.4812373351438</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.6483015712802</v>
+        <v>307.1451323350443</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.8720426143812</v>
+        <v>277.8316319859792</v>
       </c>
       <c r="AD2" t="n">
-        <v>174419.3880507692</v>
+        <v>224481.2373351438</v>
       </c>
       <c r="AE2" t="n">
-        <v>238648.3015712802</v>
+        <v>307145.1323350443</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.964836611185886e-06</v>
+        <v>4.375307353283967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>215872.0426143812</v>
+        <v>277831.6319859792</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.7833201390262</v>
+        <v>413.0467021045772</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.6430170301199</v>
+        <v>565.1487201539127</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.0118238258612</v>
+        <v>511.2117194936329</v>
       </c>
       <c r="AD2" t="n">
-        <v>341783.3201390262</v>
+        <v>413046.7021045772</v>
       </c>
       <c r="AE2" t="n">
-        <v>467643.01703012</v>
+        <v>565148.7201539127</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.328114394187123e-06</v>
+        <v>2.51115044430403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>423011.8238258612</v>
+        <v>511211.7194936329</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.4120928138692</v>
+        <v>314.7982444518316</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.4660933740521</v>
+        <v>430.7208459773822</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.1135399012794</v>
+        <v>389.6134529578041</v>
       </c>
       <c r="AD3" t="n">
-        <v>255412.0928138692</v>
+        <v>314798.2444518316</v>
       </c>
       <c r="AE3" t="n">
-        <v>349466.0933740521</v>
+        <v>430720.8459773822</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.637260352971711e-06</v>
+        <v>3.0956723914755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>316113.5399012794</v>
+        <v>389613.4529578041</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.7344106732668</v>
+        <v>281.0352214566571</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.3868029148263</v>
+        <v>384.5247883959349</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.4319922507771</v>
+        <v>347.8262822753561</v>
       </c>
       <c r="AD4" t="n">
-        <v>221734.4106732667</v>
+        <v>281035.2214566571</v>
       </c>
       <c r="AE4" t="n">
-        <v>303386.8029148263</v>
+        <v>384524.7883959349</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.754371609438294e-06</v>
+        <v>3.317102100389284e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>274431.9922507771</v>
+        <v>347826.2822753561</v>
       </c>
     </row>
     <row r="5">
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.8893969475433</v>
+        <v>276.1902077309336</v>
       </c>
       <c r="AB5" t="n">
-        <v>296.7576413883747</v>
+        <v>377.8956268694799</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.4355085963213</v>
+        <v>341.8297986208995</v>
       </c>
       <c r="AD5" t="n">
-        <v>216889.3969475433</v>
+        <v>276190.2077309336</v>
       </c>
       <c r="AE5" t="n">
-        <v>296757.6413883747</v>
+        <v>377895.62686948</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.780478757130374e-06</v>
+        <v>3.36646454673684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>268435.5085963213</v>
+        <v>341829.7986208994</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.2012400955644</v>
+        <v>218.1991850195576</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.5086013305321</v>
+        <v>298.5497512122752</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.4137453439756</v>
+        <v>270.0565819738714</v>
       </c>
       <c r="AD2" t="n">
-        <v>169201.2400955644</v>
+        <v>218199.1850195576</v>
       </c>
       <c r="AE2" t="n">
-        <v>231508.6013305321</v>
+        <v>298549.7512122752</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944739158832978e-06</v>
+        <v>4.458444329432441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.58984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>209413.7453439756</v>
+        <v>270056.5819738714</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.9308860735895</v>
+        <v>328.8220880608539</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.0678350698921</v>
+        <v>449.9088874915617</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.5582030913071</v>
+        <v>406.9702147204557</v>
       </c>
       <c r="AD2" t="n">
-        <v>271930.8860735896</v>
+        <v>328822.0880608539</v>
       </c>
       <c r="AE2" t="n">
-        <v>372067.8350698921</v>
+        <v>449908.8874915617</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546114202765971e-06</v>
+        <v>3.030362470224784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.47526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336558.2030913071</v>
+        <v>406970.2147204557</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.8030718093603</v>
+        <v>262.6941842880762</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.5888422401737</v>
+        <v>359.4297721924295</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.7143983492765</v>
+        <v>325.1262991972368</v>
       </c>
       <c r="AD3" t="n">
-        <v>205803.0718093603</v>
+        <v>262694.1842880762</v>
       </c>
       <c r="AE3" t="n">
-        <v>281588.8422401737</v>
+        <v>359429.7721924295</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.820024727368177e-06</v>
+        <v>3.567223313019687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.899739583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>254714.3983492765</v>
+        <v>325126.2991972368</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.0849773375971</v>
+        <v>257.9760898163097</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.1333372362728</v>
+        <v>352.9742671883538</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.8749976825877</v>
+        <v>319.2868985304983</v>
       </c>
       <c r="AD4" t="n">
-        <v>201084.9773375971</v>
+        <v>257976.0898163097</v>
       </c>
       <c r="AE4" t="n">
-        <v>275133.3372362728</v>
+        <v>352974.2671883539</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.850301667281064e-06</v>
+        <v>3.626565696823629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.756510416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>248874.9976825877</v>
+        <v>319286.8985304983</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.8380396619727</v>
+        <v>369.0675155005466</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.3023190719923</v>
+        <v>504.974456817499</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.7120626553144</v>
+        <v>456.7804033949377</v>
       </c>
       <c r="AD2" t="n">
-        <v>310838.0396619727</v>
+        <v>369067.5155005465</v>
       </c>
       <c r="AE2" t="n">
-        <v>425302.3190719923</v>
+        <v>504974.456817499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435662482852923e-06</v>
+        <v>2.760352679398902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>384712.0626553144</v>
+        <v>456780.4033949376</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.2117557753998</v>
+        <v>282.7953543479721</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.1953451789437</v>
+        <v>386.9330798694148</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.3500350426772</v>
+        <v>350.0047297906655</v>
       </c>
       <c r="AD3" t="n">
-        <v>236211.7557753998</v>
+        <v>282795.3543479721</v>
       </c>
       <c r="AE3" t="n">
-        <v>323195.3451789437</v>
+        <v>386933.0798694148</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.726782863054163e-06</v>
+        <v>3.320090731422963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>292350.0350426772</v>
+        <v>350004.7297906654</v>
       </c>
     </row>
     <row r="4">
@@ -6274,28 +6274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.8309090409556</v>
+        <v>266.9749545164095</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.7316627191915</v>
+        <v>365.2869108730889</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.4618338562632</v>
+        <v>330.4244407827599</v>
       </c>
       <c r="AD4" t="n">
-        <v>208830.9090409557</v>
+        <v>266974.9545164095</v>
       </c>
       <c r="AE4" t="n">
-        <v>285731.6627191915</v>
+        <v>365286.9108730889</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.814267669597096e-06</v>
+        <v>3.488298038524558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>258461.8338562633</v>
+        <v>330424.4407827599</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.3101363306723</v>
+        <v>267.4541818061261</v>
       </c>
       <c r="AB5" t="n">
-        <v>286.3873626389974</v>
+        <v>365.9426107928951</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.0549546960037</v>
+        <v>331.0175616225005</v>
       </c>
       <c r="AD5" t="n">
-        <v>209310.1363306723</v>
+        <v>267454.1818061261</v>
       </c>
       <c r="AE5" t="n">
-        <v>286387.3626389974</v>
+        <v>365942.6107928951</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.815364581353695e-06</v>
+        <v>3.490407074138816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>259054.9546960037</v>
+        <v>331017.5616225005</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.8257871760223</v>
+        <v>458.2976684662189</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.9038634466524</v>
+        <v>627.0630886616526</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.5214596370288</v>
+        <v>567.2170675683561</v>
       </c>
       <c r="AD2" t="n">
-        <v>385825.7871760223</v>
+        <v>458297.6684662189</v>
       </c>
       <c r="AE2" t="n">
-        <v>527903.8634466524</v>
+        <v>627063.0886616526</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235084147348114e-06</v>
+        <v>2.300868089793329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>477521.4596370289</v>
+        <v>567217.0675683562</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.2578859787822</v>
+        <v>334.7221631756299</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.2517390001671</v>
+        <v>457.9816305565416</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.4382396991139</v>
+        <v>414.2725065174801</v>
       </c>
       <c r="AD3" t="n">
-        <v>274257.8859787821</v>
+        <v>334722.1631756299</v>
       </c>
       <c r="AE3" t="n">
-        <v>375251.7390001671</v>
+        <v>457981.6305565416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.559136685951107e-06</v>
+        <v>2.904553390984388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.82421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>339438.2396991139</v>
+        <v>414272.5065174801</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.9192672370183</v>
+        <v>299.2907785030507</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.3188112103323</v>
+        <v>409.5028469251467</v>
       </c>
       <c r="AC4" t="n">
-        <v>310.5529457194985</v>
+        <v>370.4204699554654</v>
       </c>
       <c r="AD4" t="n">
-        <v>250919.2672370183</v>
+        <v>299290.7785030507</v>
       </c>
       <c r="AE4" t="n">
-        <v>343318.8112103323</v>
+        <v>409502.8469251468</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.679906429699686e-06</v>
+        <v>3.129538263634771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.12109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>310552.9457194985</v>
+        <v>370420.4699554653</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.742612177903</v>
+        <v>285.1215485201819</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.5027569259516</v>
+        <v>390.1158813602763</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.1551253878596</v>
+        <v>352.8837691743291</v>
       </c>
       <c r="AD5" t="n">
-        <v>224742.612177903</v>
+        <v>285121.5485201819</v>
       </c>
       <c r="AE5" t="n">
-        <v>307502.7569259516</v>
+        <v>390115.8813602763</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.742938212965308e-06</v>
+        <v>3.246961695123252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>278155.1253878596</v>
+        <v>352883.7691743291</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>225.402965080963</v>
+        <v>285.7819014232418</v>
       </c>
       <c r="AB6" t="n">
-        <v>308.4062809006317</v>
+        <v>391.019405334957</v>
       </c>
       <c r="AC6" t="n">
-        <v>278.9724183025004</v>
+        <v>353.7010620889701</v>
       </c>
       <c r="AD6" t="n">
-        <v>225402.965080963</v>
+        <v>285781.9014232418</v>
       </c>
       <c r="AE6" t="n">
-        <v>308406.2809006317</v>
+        <v>391019.4053349569</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.742726460054002e-06</v>
+        <v>3.246567215510189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>278972.4183025004</v>
+        <v>353701.0620889701</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6795823524643</v>
+        <v>289.2819997980124</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.730713790078</v>
+        <v>395.8083943447604</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.2160632109229</v>
+        <v>358.0329967090661</v>
       </c>
       <c r="AD2" t="n">
-        <v>233679.5823524643</v>
+        <v>289281.9997980124</v>
       </c>
       <c r="AE2" t="n">
-        <v>319730.7137900779</v>
+        <v>395808.3943447603</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674835016131587e-06</v>
+        <v>3.357202359837456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>289216.0632109229</v>
+        <v>358032.9967090661</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.1256867793897</v>
+        <v>247.6427633703626</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.8748406385358</v>
+        <v>338.8357540708272</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.7864347952269</v>
+        <v>306.4977452613762</v>
       </c>
       <c r="AD3" t="n">
-        <v>192125.6867793897</v>
+        <v>247642.7633703625</v>
       </c>
       <c r="AE3" t="n">
-        <v>262874.8406385359</v>
+        <v>338835.7540708273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.890530572700821e-06</v>
+        <v>3.789563532458052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>237786.4347952268</v>
+        <v>306497.7452613761</v>
       </c>
     </row>
     <row r="4">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.7476500260011</v>
+        <v>248.264726616974</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.7258381916311</v>
+        <v>339.6867516239225</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.5562143362375</v>
+        <v>307.2675248023868</v>
       </c>
       <c r="AD4" t="n">
-        <v>192747.6500260012</v>
+        <v>248264.726616974</v>
       </c>
       <c r="AE4" t="n">
-        <v>263725.8381916311</v>
+        <v>339686.7516239225</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.890046950376674e-06</v>
+        <v>3.788594112788499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>238556.2143362375</v>
+        <v>307267.5248023868</v>
       </c>
     </row>
   </sheetData>
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.0205489813885</v>
+        <v>237.6016345174271</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.8357188156155</v>
+        <v>325.0970385909072</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.3692923182147</v>
+        <v>294.0702335044469</v>
       </c>
       <c r="AD2" t="n">
-        <v>195020.5489813885</v>
+        <v>237601.6345174271</v>
       </c>
       <c r="AE2" t="n">
-        <v>266835.7188156155</v>
+        <v>325097.0385909072</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89421730752636e-06</v>
+        <v>3.962821067749783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>241369.2923182147</v>
+        <v>294070.2335044469</v>
       </c>
     </row>
     <row r="3">
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.6845936421083</v>
+        <v>232.8254978218962</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.8523881458235</v>
+        <v>318.562117655805</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.3885812772514</v>
+        <v>288.1589962515697</v>
       </c>
       <c r="AD3" t="n">
-        <v>179684.5936421083</v>
+        <v>232825.4978218962</v>
       </c>
       <c r="AE3" t="n">
-        <v>245852.3881458235</v>
+        <v>318562.117655805</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.938469889184813e-06</v>
+        <v>4.055400236043541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>222388.5812772514</v>
+        <v>288158.9962515697</v>
       </c>
     </row>
   </sheetData>
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.6989728804097</v>
+        <v>220.7606032005362</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.8720624540348</v>
+        <v>302.0543965692833</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.4063778971001</v>
+        <v>273.2267488968083</v>
       </c>
       <c r="AD2" t="n">
-        <v>179698.9728804097</v>
+        <v>220760.6032005362</v>
       </c>
       <c r="AE2" t="n">
-        <v>245872.0624540348</v>
+        <v>302054.3965692833</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.963649642389145e-06</v>
+        <v>4.268691105084931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.095052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>222406.3778971001</v>
+        <v>273226.7488968083</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.7778248406623</v>
+        <v>220.2544601998439</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.4022423665554</v>
+        <v>301.3618693862833</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.8403441477907</v>
+        <v>272.6003155361856</v>
       </c>
       <c r="AD2" t="n">
-        <v>172777.8248406623</v>
+        <v>220254.4601998439</v>
       </c>
       <c r="AE2" t="n">
-        <v>236402.2423665554</v>
+        <v>301361.8693862833</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89263468983528e-06</v>
+        <v>4.501682641872329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>213840.3441477907</v>
+        <v>272600.3155361856</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.2178668846311</v>
+        <v>354.272063836981</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.2476683957821</v>
+        <v>484.7306671221485</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.0029786401305</v>
+        <v>438.468652575774</v>
       </c>
       <c r="AD2" t="n">
-        <v>285217.8668846311</v>
+        <v>354272.063836981</v>
       </c>
       <c r="AE2" t="n">
-        <v>390247.6683957821</v>
+        <v>484730.6671221485</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489705225216657e-06</v>
+        <v>2.890889477015682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>353002.9786401305</v>
+        <v>438468.652575774</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.3201065503382</v>
+        <v>273.4132212635063</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.0293984373419</v>
+        <v>374.0960314727494</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.3451891830765</v>
+        <v>338.3928312760672</v>
       </c>
       <c r="AD3" t="n">
-        <v>227320.1065503382</v>
+        <v>273413.2212635063</v>
       </c>
       <c r="AE3" t="n">
-        <v>311029.3984373419</v>
+        <v>374096.0314727494</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.769920476801783e-06</v>
+        <v>3.434669084144958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.055989583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>281345.1891830764</v>
+        <v>338392.8312760672</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.8823998399873</v>
+        <v>262.4133404911861</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.3291382344976</v>
+        <v>359.0455093195706</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.5749187258961</v>
+        <v>324.7787098336474</v>
       </c>
       <c r="AD4" t="n">
-        <v>204882.3998399873</v>
+        <v>262413.3404911861</v>
       </c>
       <c r="AE4" t="n">
-        <v>280329.1382344976</v>
+        <v>359045.5093195706</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.831886896432758e-06</v>
+        <v>3.554919766902328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>253574.9187258961</v>
+        <v>324778.7098336474</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.9207571238318</v>
+        <v>439.7564900025581</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.4054114150688</v>
+        <v>601.6942303086079</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.3611054835463</v>
+        <v>544.2693774511097</v>
       </c>
       <c r="AD2" t="n">
-        <v>367920.7571238318</v>
+        <v>439756.490002558</v>
       </c>
       <c r="AE2" t="n">
-        <v>503405.4114150688</v>
+        <v>601694.2303086079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.285735263583741e-06</v>
+        <v>2.412543657453889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>455361.1054835463</v>
+        <v>544269.3774511097</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.2695271493048</v>
+        <v>325.2036806699273</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.953469911271</v>
+        <v>444.9580228664281</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.313700151333</v>
+        <v>402.4918536665628</v>
       </c>
       <c r="AD3" t="n">
-        <v>265269.5271493049</v>
+        <v>325203.6806699273</v>
       </c>
       <c r="AE3" t="n">
-        <v>362953.469911271</v>
+        <v>444958.0228664281</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.595473244271418e-06</v>
+        <v>2.993733597518063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.680989583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>328313.700151333</v>
+        <v>402491.8536665628</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.566756414458</v>
+        <v>289.4155690805115</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.103363896626</v>
+        <v>395.9911497297366</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.1257796932651</v>
+        <v>358.198310176599</v>
       </c>
       <c r="AD4" t="n">
-        <v>229566.756414458</v>
+        <v>289415.5690805116</v>
       </c>
       <c r="AE4" t="n">
-        <v>314103.363896626</v>
+        <v>395991.1497297366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72071120383409e-06</v>
+        <v>3.228729131647871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.977864583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>284125.7796932651</v>
+        <v>358198.310176599</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.9918654376129</v>
+        <v>280.8406781036663</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.3708197646213</v>
+        <v>384.2586055977259</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.5129731064861</v>
+        <v>347.5855035898183</v>
       </c>
       <c r="AD5" t="n">
-        <v>220991.8654376129</v>
+        <v>280840.6781036663</v>
       </c>
       <c r="AE5" t="n">
-        <v>302370.8197646213</v>
+        <v>384258.605597726</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.761041670069465e-06</v>
+        <v>3.304404905093727e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>273512.9731064861</v>
+        <v>347585.5035898183</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.5214114541931</v>
+        <v>230.3119770330005</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.1561386096852</v>
+        <v>315.1230076237286</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.2359738021039</v>
+        <v>285.0481100541323</v>
       </c>
       <c r="AD2" t="n">
-        <v>175521.4114541931</v>
+        <v>230311.9770330005</v>
       </c>
       <c r="AE2" t="n">
-        <v>240156.1386096852</v>
+        <v>315123.0076237286</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.74305784776381e-06</v>
+        <v>4.359255397413554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>217235.9738021039</v>
+        <v>285048.1100541323</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.2120292973613</v>
+        <v>262.1111719684862</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.8848841509587</v>
+        <v>358.6320690160783</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.6958706461211</v>
+        <v>324.4047276924532</v>
       </c>
       <c r="AD2" t="n">
-        <v>208212.0292973613</v>
+        <v>262111.1719684862</v>
       </c>
       <c r="AE2" t="n">
-        <v>284884.8841509587</v>
+        <v>358632.0690160783</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.815213833689791e-06</v>
+        <v>3.738039820666461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.368489583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>257695.8706461212</v>
+        <v>324404.7276924531</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.5335119638191</v>
+        <v>237.5179059809613</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.1186479958779</v>
+        <v>324.9824775134724</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.1522366784604</v>
+        <v>293.966605975455</v>
       </c>
       <c r="AD3" t="n">
-        <v>183533.5119638191</v>
+        <v>237517.9059809613</v>
       </c>
       <c r="AE3" t="n">
-        <v>251118.6479958779</v>
+        <v>324982.4775134724</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.927825337607846e-06</v>
+        <v>3.969938827878834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.821614583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>227152.2366784604</v>
+        <v>293966.605975455</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.8742444130667</v>
+        <v>315.0955297109139</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.2031619315881</v>
+        <v>431.1276047841585</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.3985092840965</v>
+        <v>389.9813912749513</v>
       </c>
       <c r="AD2" t="n">
-        <v>258874.2444130667</v>
+        <v>315095.5297109139</v>
       </c>
       <c r="AE2" t="n">
-        <v>354203.1619315881</v>
+        <v>431127.6047841585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.605104918197598e-06</v>
+        <v>3.180008361677555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>320398.5092840965</v>
+        <v>389981.3912749513</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.7928652223388</v>
+        <v>254.0140610116342</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.6289242024425</v>
+        <v>347.5532445854249</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.8004795067213</v>
+        <v>314.3832507163382</v>
       </c>
       <c r="AD3" t="n">
-        <v>197792.8652223388</v>
+        <v>254014.0610116342</v>
       </c>
       <c r="AE3" t="n">
-        <v>270628.9242024425</v>
+        <v>347553.2445854249</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.860711216469038e-06</v>
+        <v>3.686411498684555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>244800.4795067213</v>
+        <v>314383.2507163382</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.6622332521973</v>
+        <v>252.8834290414926</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.0819436609334</v>
+        <v>346.0062640439159</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.4011406168925</v>
+        <v>312.9839118265094</v>
       </c>
       <c r="AD4" t="n">
-        <v>196662.2332521973</v>
+        <v>252883.4290414926</v>
       </c>
       <c r="AE4" t="n">
-        <v>269081.9436609334</v>
+        <v>346006.2640439159</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.874295253578238e-06</v>
+        <v>3.71332397717917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>243401.1406168925</v>
+        <v>312983.9118265094</v>
       </c>
     </row>
   </sheetData>
